--- a/out/AC/AC 1421.xlsx
+++ b/out/AC/AC 1421.xlsx
@@ -1231,7 +1231,7 @@
     <t>4% filler,47% containsProductNr,47% NrHeader,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>4% filler,47% containsProduct,47% QuantityHeader,</t>
@@ -1246,9 +1246,6 @@
     <t>2% filler,21% containsTotalMass,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,</t>
   </si>
   <si>
-    <t>6% filler,31% containsProductNr,62% containsAmount,</t>
-  </si>
-  <si>
     <t>3% filler,32% containsProduct,32% SingleMassHeader,32% TotalMassHeader,</t>
   </si>
   <si>
@@ -1273,10 +1270,10 @@
     <t>2% filler,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,21% SingleMassHeader,</t>
   </si>
   <si>
-    <t>3% filler,32% containsProductNr,32% containsAmount,32% QuantityHeader,</t>
-  </si>
-  <si>
-    <t>2% filler,13% containsProductNr,27% containsAmount,27% NrHeader,27% QuantityHeader,</t>
+    <t>2% filler,24% containsProduct,24% containsProductNr,24% containsAmount,24% QuantityHeader,</t>
+  </si>
+  <si>
+    <t>2% filler,21% containsProduct,10% containsProductNr,21% containsAmount,21% NrHeader,21% QuantityHeader,</t>
   </si>
   <si>
     <t>4% filler,47% containsProduct,47% SingleMassHeader,</t>
@@ -1285,9 +1282,6 @@
     <t>1% filler,17% containsSingleMass,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% QuantityHeader,</t>
   </si>
   <si>
-    <t>2% filler,27% containsTotalMass,27% containsSingleMass,13% containsProductNr,27% containsAmount,</t>
-  </si>
-  <si>
     <t>1% filler,19% containsTotalMass,19% containsSingleMass,19% containsProduct,19% SingleMassHeader,19% TotalMassHeader,</t>
   </si>
   <si>
@@ -1301,6 +1295,12 @@
   </si>
   <si>
     <t xml:space="preserve">PRODUKT, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTAL, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="65">
+  <fills count="63">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1666,7 +1666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -1687,11 +1687,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5B7471"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0F08A6"/>
       </patternFill>
     </fill>
     <fill>
@@ -1736,12 +1731,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0856A8"/>
+        <fgColor rgb="FF06607F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4D76B2"/>
+        <fgColor rgb="FF3C788B"/>
       </patternFill>
     </fill>
     <fill>
@@ -1752,11 +1747,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF5F94AD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF747190"/>
       </patternFill>
     </fill>
     <fill>
@@ -1945,7 +1935,7 @@
     <xf numFmtId="0" applyNumberFormat="0" fontId="16" applyFont="1" fillId="0" applyFill="0" borderId="9" applyBorder="1" applyProtection="0" applyAlignment="0"/>
     <xf numFmtId="0" applyNumberFormat="0" fontId="7" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" borderId="0" xfId="0"/>
@@ -1986,11 +1976,9 @@
     <xf numFmtId="0" fontId="0" fillId="57" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="58" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="59" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="60" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="16" applyFont="1" fillId="60" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="61" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="16" applyFont="1" fillId="62" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="63" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="64" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="62" applyFill="1" borderId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Farve1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -12457,7 +12445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0651EB6-69CD-4C6C-BA20-A5EDD934DDC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6328A556-0F29-4CE3-978B-3B375888C124}">
   <dimension ref="A1:I1179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
@@ -13311,9 +13299,6 @@
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="I28" s="40" t="s">
-        <v>417</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="17">
@@ -13341,9 +13326,6 @@
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="I29" s="41" t="s">
-        <v>418</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="17">
@@ -13598,7 +13580,7 @@
       <c r="C39" s="17">
         <v>22830</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="15" t="s">
         <v>83</v>
       </c>
       <c r="E39" s="17">
@@ -13706,7 +13688,7 @@
       <c r="C43" s="17">
         <v>24240</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="23" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="17">
@@ -13787,7 +13769,7 @@
       <c r="C46" s="17">
         <v>24290</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="15" t="s">
         <v>97</v>
       </c>
       <c r="E46" s="17">
@@ -13895,7 +13877,7 @@
       <c r="C50" s="17">
         <v>24890</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="26" t="s">
         <v>105</v>
       </c>
       <c r="E50" s="20">
@@ -14138,7 +14120,7 @@
       <c r="C59" s="17">
         <v>27100</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="27" t="s">
         <v>123</v>
       </c>
       <c r="E59" s="17">
@@ -14165,7 +14147,7 @@
       <c r="C60" s="17">
         <v>27110</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="27" t="s">
         <v>125</v>
       </c>
       <c r="E60" s="17">
@@ -14300,7 +14282,7 @@
       <c r="C65" s="17">
         <v>32990</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E65" s="17">
@@ -14354,7 +14336,7 @@
       <c r="C67" s="17">
         <v>33450</v>
       </c>
-      <c r="D67" s="30" t="s">
+      <c r="D67" s="29" t="s">
         <v>139</v>
       </c>
       <c r="E67" s="17">
@@ -14570,7 +14552,7 @@
       <c r="C75" s="17">
         <v>44980</v>
       </c>
-      <c r="D75" s="31" t="s">
+      <c r="D75" s="30" t="s">
         <v>155</v>
       </c>
       <c r="E75" s="17">
@@ -14597,7 +14579,7 @@
       <c r="C76" s="17">
         <v>45010</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="15" t="s">
         <v>157</v>
       </c>
       <c r="E76" s="17">
@@ -14732,7 +14714,7 @@
       <c r="C81" s="17">
         <v>45580</v>
       </c>
-      <c r="D81" s="31" t="s">
+      <c r="D81" s="30" t="s">
         <v>167</v>
       </c>
       <c r="E81" s="17">
@@ -14786,7 +14768,7 @@
       <c r="C83" s="17">
         <v>45610</v>
       </c>
-      <c r="D83" s="31" t="s">
+      <c r="D83" s="30" t="s">
         <v>171</v>
       </c>
       <c r="E83" s="17">
@@ -14840,7 +14822,7 @@
       <c r="C85" s="17">
         <v>63840</v>
       </c>
-      <c r="D85" s="32" t="s">
+      <c r="D85" s="31" t="s">
         <v>175</v>
       </c>
       <c r="E85" s="17">
@@ -14867,7 +14849,7 @@
       <c r="C86" s="17">
         <v>65100</v>
       </c>
-      <c r="D86" s="32" t="s">
+      <c r="D86" s="31" t="s">
         <v>177</v>
       </c>
       <c r="E86" s="17">
@@ -14975,7 +14957,7 @@
       <c r="C90" s="17">
         <v>73340</v>
       </c>
-      <c r="D90" s="31" t="s">
+      <c r="D90" s="30" t="s">
         <v>185</v>
       </c>
       <c r="E90" s="17">
@@ -15002,7 +14984,7 @@
       <c r="C91" s="17">
         <v>74410</v>
       </c>
-      <c r="D91" s="33" t="s">
+      <c r="D91" s="32" t="s">
         <v>187</v>
       </c>
       <c r="E91" s="17">
@@ -15029,7 +15011,7 @@
       <c r="C92" s="17">
         <v>74420</v>
       </c>
-      <c r="D92" s="34" t="s">
+      <c r="D92" s="33" t="s">
         <v>189</v>
       </c>
       <c r="E92" s="17">
@@ -15056,7 +15038,7 @@
       <c r="C93" s="17">
         <v>74430</v>
       </c>
-      <c r="D93" s="34" t="s">
+      <c r="D93" s="33" t="s">
         <v>191</v>
       </c>
       <c r="E93" s="17">
@@ -15137,7 +15119,7 @@
       <c r="C96" s="17">
         <v>76800</v>
       </c>
-      <c r="D96" s="33" t="s">
+      <c r="D96" s="32" t="s">
         <v>197</v>
       </c>
       <c r="E96" s="17">
@@ -15164,7 +15146,7 @@
       <c r="C97" s="17">
         <v>77700</v>
       </c>
-      <c r="D97" s="31" t="s">
+      <c r="D97" s="30" t="s">
         <v>199</v>
       </c>
       <c r="E97" s="17">
@@ -15191,7 +15173,7 @@
       <c r="C98" s="17">
         <v>78130</v>
       </c>
-      <c r="D98" s="35" t="s">
+      <c r="D98" s="34" t="s">
         <v>201</v>
       </c>
       <c r="E98" s="17">
@@ -15218,7 +15200,7 @@
       <c r="C99" s="17">
         <v>78210</v>
       </c>
-      <c r="D99" s="36" t="s">
+      <c r="D99" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E99" s="17">
@@ -15245,7 +15227,7 @@
       <c r="C100" s="17">
         <v>79500</v>
       </c>
-      <c r="D100" s="33" t="s">
+      <c r="D100" s="32" t="s">
         <v>205</v>
       </c>
       <c r="E100" s="17">
@@ -15272,7 +15254,7 @@
       <c r="C101" s="17">
         <v>79530</v>
       </c>
-      <c r="D101" s="33" t="s">
+      <c r="D101" s="32" t="s">
         <v>207</v>
       </c>
       <c r="E101" s="17">
@@ -15299,7 +15281,7 @@
       <c r="C102" s="17">
         <v>79540</v>
       </c>
-      <c r="D102" s="33" t="s">
+      <c r="D102" s="32" t="s">
         <v>209</v>
       </c>
       <c r="E102" s="17">
@@ -15326,7 +15308,7 @@
       <c r="C103" s="17">
         <v>79550</v>
       </c>
-      <c r="D103" s="33" t="s">
+      <c r="D103" s="32" t="s">
         <v>211</v>
       </c>
       <c r="E103" s="17">
@@ -15353,7 +15335,7 @@
       <c r="C104" s="17">
         <v>79560</v>
       </c>
-      <c r="D104" s="33" t="s">
+      <c r="D104" s="32" t="s">
         <v>213</v>
       </c>
       <c r="E104" s="17">
@@ -15380,7 +15362,7 @@
       <c r="C105" s="17">
         <v>79570</v>
       </c>
-      <c r="D105" s="33" t="s">
+      <c r="D105" s="32" t="s">
         <v>215</v>
       </c>
       <c r="E105" s="17">
@@ -15407,7 +15389,7 @@
       <c r="C106" s="17">
         <v>79580</v>
       </c>
-      <c r="D106" s="33" t="s">
+      <c r="D106" s="32" t="s">
         <v>217</v>
       </c>
       <c r="E106" s="17">
@@ -15434,7 +15416,7 @@
       <c r="C107" s="17">
         <v>79590</v>
       </c>
-      <c r="D107" s="33" t="s">
+      <c r="D107" s="32" t="s">
         <v>219</v>
       </c>
       <c r="E107" s="17">
@@ -15488,7 +15470,7 @@
       <c r="C109" s="17">
         <v>79630</v>
       </c>
-      <c r="D109" s="33" t="s">
+      <c r="D109" s="32" t="s">
         <v>223</v>
       </c>
       <c r="E109" s="17">
@@ -15515,7 +15497,7 @@
       <c r="C110" s="17">
         <v>79660</v>
       </c>
-      <c r="D110" s="33" t="s">
+      <c r="D110" s="32" t="s">
         <v>225</v>
       </c>
       <c r="E110" s="17">
@@ -15542,7 +15524,7 @@
       <c r="C111" s="17">
         <v>79700</v>
       </c>
-      <c r="D111" s="37" t="s">
+      <c r="D111" s="36" t="s">
         <v>227</v>
       </c>
       <c r="E111" s="17">
@@ -15569,7 +15551,7 @@
       <c r="C112" s="17">
         <v>79710</v>
       </c>
-      <c r="D112" s="37" t="s">
+      <c r="D112" s="36" t="s">
         <v>229</v>
       </c>
       <c r="E112" s="17">
@@ -15596,7 +15578,7 @@
       <c r="C113" s="17">
         <v>79740</v>
       </c>
-      <c r="D113" s="37" t="s">
+      <c r="D113" s="36" t="s">
         <v>231</v>
       </c>
       <c r="E113" s="17">
@@ -15623,7 +15605,7 @@
       <c r="C114" s="17">
         <v>79750</v>
       </c>
-      <c r="D114" s="37" t="s">
+      <c r="D114" s="36" t="s">
         <v>233</v>
       </c>
       <c r="E114" s="17">
@@ -15650,7 +15632,7 @@
       <c r="C115" s="17">
         <v>79760</v>
       </c>
-      <c r="D115" s="37" t="s">
+      <c r="D115" s="36" t="s">
         <v>235</v>
       </c>
       <c r="E115" s="17">
@@ -15677,7 +15659,7 @@
       <c r="C116" s="17">
         <v>79780</v>
       </c>
-      <c r="D116" s="37" t="s">
+      <c r="D116" s="36" t="s">
         <v>237</v>
       </c>
       <c r="E116" s="17">
@@ -15704,7 +15686,7 @@
       <c r="C117" s="17">
         <v>79790</v>
       </c>
-      <c r="D117" s="37" t="s">
+      <c r="D117" s="36" t="s">
         <v>239</v>
       </c>
       <c r="E117" s="17">
@@ -15731,7 +15713,7 @@
       <c r="C118" s="17">
         <v>79830</v>
       </c>
-      <c r="D118" s="37" t="s">
+      <c r="D118" s="36" t="s">
         <v>241</v>
       </c>
       <c r="E118" s="17">
@@ -15758,7 +15740,7 @@
       <c r="C119" s="17">
         <v>79860</v>
       </c>
-      <c r="D119" s="37" t="s">
+      <c r="D119" s="36" t="s">
         <v>243</v>
       </c>
       <c r="E119" s="17">
@@ -15785,7 +15767,7 @@
       <c r="C120" s="17">
         <v>102520</v>
       </c>
-      <c r="D120" s="38" t="s">
+      <c r="D120" s="37" t="s">
         <v>245</v>
       </c>
       <c r="E120" s="17">
@@ -15812,7 +15794,7 @@
       <c r="C121" s="17">
         <v>104920</v>
       </c>
-      <c r="D121" s="32" t="s">
+      <c r="D121" s="31" t="s">
         <v>247</v>
       </c>
       <c r="E121" s="17">
@@ -15839,7 +15821,7 @@
       <c r="C122" s="17">
         <v>460170</v>
       </c>
-      <c r="D122" s="39" t="s">
+      <c r="D122" s="25" t="s">
         <v>249</v>
       </c>
       <c r="E122" s="17">
@@ -15866,7 +15848,7 @@
       <c r="C123" s="17">
         <v>470070</v>
       </c>
-      <c r="D123" s="32" t="s">
+      <c r="D123" s="31" t="s">
         <v>251</v>
       </c>
       <c r="E123" s="17">
@@ -16109,7 +16091,7 @@
       <c r="C132" s="17">
         <v>910810</v>
       </c>
-      <c r="D132" s="28" t="s">
+      <c r="D132" s="27" t="s">
         <v>269</v>
       </c>
       <c r="E132" s="17">
@@ -16136,7 +16118,7 @@
       <c r="C133" s="17">
         <v>910890</v>
       </c>
-      <c r="D133" s="28" t="s">
+      <c r="D133" s="27" t="s">
         <v>271</v>
       </c>
       <c r="E133" s="17">
@@ -16298,7 +16280,7 @@
       <c r="C139" s="17">
         <v>920980</v>
       </c>
-      <c r="D139" s="40" t="s">
+      <c r="D139" s="38" t="s">
         <v>283</v>
       </c>
       <c r="E139" s="17">
@@ -16352,7 +16334,7 @@
       <c r="C141" s="17">
         <v>921050</v>
       </c>
-      <c r="D141" s="32" t="s">
+      <c r="D141" s="31" t="s">
         <v>287</v>
       </c>
       <c r="E141" s="17">
@@ -16460,7 +16442,7 @@
       <c r="C145" s="17">
         <v>921500</v>
       </c>
-      <c r="D145" s="32" t="s">
+      <c r="D145" s="31" t="s">
         <v>295</v>
       </c>
       <c r="E145" s="17">
@@ -16487,7 +16469,7 @@
       <c r="C146" s="17">
         <v>921570</v>
       </c>
-      <c r="D146" s="32" t="s">
+      <c r="D146" s="31" t="s">
         <v>297</v>
       </c>
       <c r="E146" s="17">
@@ -16649,7 +16631,7 @@
       <c r="C152" s="17">
         <v>922050</v>
       </c>
-      <c r="D152" s="28" t="s">
+      <c r="D152" s="27" t="s">
         <v>309</v>
       </c>
       <c r="E152" s="17">
@@ -16676,7 +16658,7 @@
       <c r="C153" s="17">
         <v>922800</v>
       </c>
-      <c r="D153" s="28" t="s">
+      <c r="D153" s="27" t="s">
         <v>311</v>
       </c>
       <c r="E153" s="17">
@@ -16784,7 +16766,7 @@
       <c r="C157" s="17">
         <v>925060</v>
       </c>
-      <c r="D157" s="31" t="s">
+      <c r="D157" s="30" t="s">
         <v>319</v>
       </c>
       <c r="E157" s="17">
@@ -16811,7 +16793,7 @@
       <c r="C158" s="17">
         <v>925410</v>
       </c>
-      <c r="D158" s="40" t="s">
+      <c r="D158" s="38" t="s">
         <v>321</v>
       </c>
       <c r="E158" s="17">
@@ -16919,7 +16901,7 @@
       <c r="C162" s="17">
         <v>927100</v>
       </c>
-      <c r="D162" s="28" t="s">
+      <c r="D162" s="27" t="s">
         <v>329</v>
       </c>
       <c r="E162" s="17">
@@ -16946,7 +16928,7 @@
       <c r="C163" s="17">
         <v>927110</v>
       </c>
-      <c r="D163" s="28" t="s">
+      <c r="D163" s="27" t="s">
         <v>331</v>
       </c>
       <c r="E163" s="17">
@@ -16973,7 +16955,7 @@
       <c r="C164" s="17">
         <v>928800</v>
       </c>
-      <c r="D164" s="32" t="s">
+      <c r="D164" s="31" t="s">
         <v>333</v>
       </c>
       <c r="E164" s="20">
@@ -17108,7 +17090,7 @@
       <c r="C169" s="17">
         <v>933450</v>
       </c>
-      <c r="D169" s="41" t="s">
+      <c r="D169" s="39" t="s">
         <v>343</v>
       </c>
       <c r="E169" s="17">
@@ -17135,7 +17117,7 @@
       <c r="C170" s="17">
         <v>933550</v>
       </c>
-      <c r="D170" s="41" t="s">
+      <c r="D170" s="39" t="s">
         <v>345</v>
       </c>
       <c r="E170" s="17">
@@ -17162,7 +17144,7 @@
       <c r="C171" s="17">
         <v>933560</v>
       </c>
-      <c r="D171" s="41" t="s">
+      <c r="D171" s="39" t="s">
         <v>347</v>
       </c>
       <c r="E171" s="17">
@@ -17297,7 +17279,7 @@
       <c r="C176" s="17">
         <v>944930</v>
       </c>
-      <c r="D176" s="31" t="s">
+      <c r="D176" s="30" t="s">
         <v>357</v>
       </c>
       <c r="E176" s="17">
@@ -17324,7 +17306,7 @@
       <c r="C177" s="17">
         <v>944980</v>
       </c>
-      <c r="D177" s="31" t="s">
+      <c r="D177" s="30" t="s">
         <v>359</v>
       </c>
       <c r="E177" s="17">
@@ -17351,7 +17333,7 @@
       <c r="C178" s="17">
         <v>945050</v>
       </c>
-      <c r="D178" s="31" t="s">
+      <c r="D178" s="30" t="s">
         <v>361</v>
       </c>
       <c r="E178" s="17">
@@ -17459,7 +17441,7 @@
       <c r="C182" s="17">
         <v>974420</v>
       </c>
-      <c r="D182" s="34" t="s">
+      <c r="D182" s="33" t="s">
         <v>369</v>
       </c>
       <c r="E182" s="17">
@@ -17486,7 +17468,7 @@
       <c r="C183" s="17">
         <v>974430</v>
       </c>
-      <c r="D183" s="34" t="s">
+      <c r="D183" s="33" t="s">
         <v>371</v>
       </c>
       <c r="E183" s="17">
@@ -17540,7 +17522,7 @@
       <c r="C185" s="17">
         <v>977500</v>
       </c>
-      <c r="D185" s="32" t="s">
+      <c r="D185" s="31" t="s">
         <v>375</v>
       </c>
       <c r="E185" s="17">
@@ -17621,7 +17603,7 @@
       <c r="C188" s="17">
         <v>977700</v>
       </c>
-      <c r="D188" s="31" t="s">
+      <c r="D188" s="30" t="s">
         <v>381</v>
       </c>
       <c r="E188" s="17">
@@ -17675,7 +17657,7 @@
       <c r="C190" s="17">
         <v>979700</v>
       </c>
-      <c r="D190" s="27" t="s">
+      <c r="D190" s="26" t="s">
         <v>385</v>
       </c>
       <c r="E190" s="17">
@@ -17702,7 +17684,7 @@
       <c r="C191" s="17">
         <v>979750</v>
       </c>
-      <c r="D191" s="27" t="s">
+      <c r="D191" s="26" t="s">
         <v>387</v>
       </c>
       <c r="E191" s="17">
@@ -17729,7 +17711,7 @@
       <c r="C192" s="17">
         <v>9996520</v>
       </c>
-      <c r="D192" s="0" t="s">
+      <c r="D192" s="15" t="s">
         <v>389</v>
       </c>
       <c r="E192" s="17">
@@ -22690,7 +22672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423B3134-704D-4666-8C50-5DD9380B64DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B8ED04-594E-4518-AD9A-2153BD4F7A96}">
   <dimension ref="A1:H1179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
@@ -22710,23 +22692,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="C1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>420</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="F1" s="40" t="s">
         <v>421</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -22736,22 +22718,22 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="41">
         <v>10150</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2" s="41">
         <v>1</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2" s="42">
         <v>15</v>
       </c>
       <c r="G2" s="0">
@@ -22763,22 +22745,22 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B3" s="44" t="s">
+      <c r="A3" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="41">
         <v>10200</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3" s="41">
         <v>1</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3" s="42">
         <v>18.14</v>
       </c>
       <c r="G3" s="0">
@@ -22790,22 +22772,22 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B4" s="44" t="s">
+      <c r="A4" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="41">
         <v>10300</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4" s="41">
         <v>1</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4" s="42">
         <v>6</v>
       </c>
       <c r="G4" s="0">
@@ -22817,22 +22799,22 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B5" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="41">
         <v>10440</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5" s="41">
         <v>3</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5" s="42">
         <v>24</v>
       </c>
       <c r="G5" s="0">
@@ -22844,22 +22826,22 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B6" s="44" t="s">
+      <c r="A6" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="41">
         <v>10540</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6" s="41">
         <v>5.33</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6" s="42">
         <v>24</v>
       </c>
       <c r="G6" s="0">
@@ -22871,22 +22853,22 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B7" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="41">
         <v>10580</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7" s="41">
         <v>3</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7" s="42">
         <v>13.5</v>
       </c>
       <c r="G7" s="0">
@@ -22898,22 +22880,22 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="41">
         <v>10810</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8" s="41">
         <v>1</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8" s="42">
         <v>10</v>
       </c>
       <c r="G8" s="0">
@@ -22925,22 +22907,22 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="41">
         <v>10840</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9" s="41">
         <v>1</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9" s="42">
         <v>12</v>
       </c>
       <c r="G9" s="0">
@@ -22952,22 +22934,22 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B10" s="44" t="s">
+      <c r="A10" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="41">
         <v>11250</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10" s="41">
         <v>1</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10" s="42">
         <v>10</v>
       </c>
       <c r="G10" s="0">
@@ -22979,22 +22961,22 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="41">
         <v>11810</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11" s="41">
         <v>12</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11" s="42">
         <v>60</v>
       </c>
       <c r="G11" s="0">
@@ -23006,22 +22988,22 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="41">
         <v>12400</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12" s="41">
         <v>1</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12" s="42">
         <v>1</v>
       </c>
       <c r="G12" s="0">
@@ -23033,22 +23015,22 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B13" s="44" t="s">
+      <c r="A13" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B13" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="41">
         <v>13900</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13" s="41">
         <v>3</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13" s="42">
         <v>41</v>
       </c>
       <c r="G13" s="0">
@@ -23060,22 +23042,22 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="41">
         <v>13910</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14" s="41">
         <v>5</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14" s="42">
         <v>25</v>
       </c>
       <c r="G14" s="0">
@@ -23087,22 +23069,22 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="41">
         <v>13920</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15" s="41">
         <v>9</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15" s="42">
         <v>98</v>
       </c>
       <c r="G15" s="0">
@@ -23114,22 +23096,22 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B16" s="44" t="s">
+      <c r="A16" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="41">
         <v>13930</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16" s="41">
         <v>1</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16" s="42">
         <v>10</v>
       </c>
       <c r="G16" s="0">
@@ -23141,22 +23123,22 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B17" s="44" t="s">
+      <c r="A17" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B17" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="41">
         <v>13940</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17" s="41">
         <v>8</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17" s="42">
         <v>41</v>
       </c>
       <c r="G17" s="0">
@@ -23168,22 +23150,22 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B18" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="41">
         <v>14100</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18" s="41">
         <v>0.38</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18" s="42">
         <v>1.725</v>
       </c>
       <c r="G18" s="0">
@@ -23195,22 +23177,22 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B19" s="44" t="s">
+      <c r="A19" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B19" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="43">
+      <c r="C19" s="41">
         <v>14720</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19" s="41">
         <v>10</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19" s="42">
         <v>100</v>
       </c>
       <c r="G19" s="0">
@@ -23222,22 +23204,22 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B20" s="44" t="s">
+      <c r="A20" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="41">
         <v>14730</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20" s="41">
         <v>4</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20" s="42">
         <v>48</v>
       </c>
       <c r="G20" s="0">
@@ -23249,22 +23231,22 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B21" s="44" t="s">
+      <c r="A21" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B21" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="41">
         <v>14790</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21" s="41">
         <v>2</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21" s="42">
         <v>25</v>
       </c>
       <c r="G21" s="0">
@@ -23276,22 +23258,22 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B22" s="44" t="s">
+      <c r="A22" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B22" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="41">
         <v>15200</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22" s="41">
         <v>0.19</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22" s="42">
         <v>0.83</v>
       </c>
       <c r="G22" s="0">
@@ -23303,22 +23285,22 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B23" s="44" t="s">
+      <c r="A23" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B23" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="41">
         <v>20770</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23" s="41">
         <v>51</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23" s="42">
         <v>204</v>
       </c>
       <c r="G23" s="0">
@@ -23330,22 +23312,22 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B24" s="44" t="s">
+      <c r="A24" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="41">
         <v>20790</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24" s="41">
         <v>6</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24" s="42">
         <v>30</v>
       </c>
       <c r="G24" s="0">
@@ -23357,22 +23339,22 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B25" s="44" t="s">
+      <c r="A25" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B25" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="41">
         <v>20820</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25" s="41">
         <v>20</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25" s="42">
         <v>123</v>
       </c>
       <c r="G25" s="0">
@@ -23384,22 +23366,22 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B26" s="44" t="s">
+      <c r="A26" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B26" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="41">
         <v>20830</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26" s="41">
         <v>14</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26" s="42">
         <v>84</v>
       </c>
       <c r="G26" s="0">
@@ -23411,22 +23393,22 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B27" s="44" t="s">
+      <c r="A27" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B27" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="41">
         <v>20880</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27" s="41">
         <v>123</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27" s="42">
         <v>492</v>
       </c>
       <c r="G27" s="0">
@@ -23438,22 +23420,22 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B28" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="41">
         <v>21000</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28" s="41">
         <v>1</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28" s="42">
         <v>6</v>
       </c>
       <c r="G28" s="0">
@@ -23465,22 +23447,22 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B29" s="44" t="s">
+      <c r="A29" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B29" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="41">
         <v>21010</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29" s="41">
         <v>1</v>
       </c>
-      <c r="F29" s="0">
+      <c r="F29" s="42">
         <v>6</v>
       </c>
       <c r="G29" s="0">
@@ -23492,22 +23474,22 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B30" s="44" t="s">
+      <c r="A30" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B30" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="41">
         <v>21080</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30" s="41">
         <v>2</v>
       </c>
-      <c r="F30" s="0">
+      <c r="F30" s="42">
         <v>12</v>
       </c>
       <c r="G30" s="0">
@@ -23519,22 +23501,22 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B31" s="44" t="s">
+      <c r="A31" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B31" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="41">
         <v>21130</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31" s="41">
         <v>12</v>
       </c>
-      <c r="F31" s="0">
+      <c r="F31" s="42">
         <v>120</v>
       </c>
       <c r="G31" s="0">
@@ -23546,22 +23528,22 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B32" s="44" t="s">
+      <c r="A32" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B32" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="41">
         <v>21190</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32" s="41">
         <v>31</v>
       </c>
-      <c r="F32" s="0">
+      <c r="F32" s="42">
         <v>139.5</v>
       </c>
       <c r="G32" s="0">
@@ -23573,22 +23555,22 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B33" s="44" t="s">
+      <c r="A33" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B33" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="41">
         <v>21420</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33" s="41">
         <v>0.18</v>
       </c>
-      <c r="F33" s="0">
+      <c r="F33" s="42">
         <v>0.9</v>
       </c>
       <c r="G33" s="0">
@@ -23600,22 +23582,22 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B34" s="44" t="s">
+      <c r="A34" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B34" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="43">
+      <c r="C34" s="41">
         <v>21500</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34" s="41">
         <v>4</v>
       </c>
-      <c r="F34" s="0">
+      <c r="F34" s="42">
         <v>20</v>
       </c>
       <c r="G34" s="0">
@@ -23627,22 +23609,22 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B35" s="44" t="s">
+      <c r="A35" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B35" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="41">
         <v>21600</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35" s="41">
         <v>1</v>
       </c>
-      <c r="F35" s="0">
+      <c r="F35" s="42">
         <v>4</v>
       </c>
       <c r="G35" s="0">
@@ -23654,22 +23636,22 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B36" s="44" t="s">
+      <c r="A36" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B36" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="41">
         <v>21700</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36" s="41">
         <v>7</v>
       </c>
-      <c r="F36" s="0">
+      <c r="F36" s="42">
         <v>56</v>
       </c>
       <c r="G36" s="0">
@@ -23681,22 +23663,22 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B37" s="44" t="s">
+      <c r="A37" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B37" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="41">
         <v>22020</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37" s="41">
         <v>8</v>
       </c>
-      <c r="F37" s="0">
+      <c r="F37" s="42">
         <v>40</v>
       </c>
       <c r="G37" s="0">
@@ -23708,22 +23690,22 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="43">
-        <v>1421</v>
-      </c>
-      <c r="B38" s="44" t="s">
+      <c r="A38" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B38" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="41">
         <v>22100</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38" s="41">
         <v>8</v>
       </c>
-      <c r="F38" s="0">
+      <c r="F38" s="42">
         <v>32</v>
       </c>
       <c r="G38" s="0">
@@ -23735,22 +23717,22 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="A39" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B39" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="0">
+      <c r="C39" s="41">
         <v>22830</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39" s="41">
         <v>2</v>
       </c>
-      <c r="F39" s="0">
+      <c r="F39" s="42">
         <v>6.4</v>
       </c>
       <c r="G39" s="0">
@@ -23762,22 +23744,22 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B40" s="0" t="s">
+      <c r="A40" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B40" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="0">
+      <c r="C40" s="41">
         <v>23140</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40" s="41">
         <v>2</v>
       </c>
-      <c r="F40" s="0">
+      <c r="F40" s="42">
         <v>8</v>
       </c>
       <c r="G40" s="0">
@@ -23789,22 +23771,22 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="A41" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B41" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="0">
+      <c r="C41" s="41">
         <v>24210</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41" s="41">
         <v>11</v>
       </c>
-      <c r="F41" s="0">
+      <c r="F41" s="42">
         <v>55</v>
       </c>
       <c r="G41" s="0">
@@ -23816,22 +23798,22 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B42" s="0" t="s">
+      <c r="A42" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B42" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="0">
+      <c r="C42" s="41">
         <v>24230</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42" s="41">
         <v>9</v>
       </c>
-      <c r="F42" s="0">
+      <c r="F42" s="42">
         <v>45</v>
       </c>
       <c r="G42" s="0">
@@ -23843,22 +23825,22 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B43" s="0" t="s">
+      <c r="A43" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B43" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="0">
+      <c r="C43" s="41">
         <v>24240</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43" s="41">
         <v>2</v>
       </c>
-      <c r="F43" s="0">
+      <c r="F43" s="42">
         <v>10</v>
       </c>
       <c r="G43" s="0">
@@ -23870,22 +23852,22 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B44" s="0" t="s">
+      <c r="A44" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B44" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="0">
+      <c r="C44" s="41">
         <v>24270</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="0">
+      <c r="E44" s="41">
         <v>2</v>
       </c>
-      <c r="F44" s="0">
+      <c r="F44" s="42">
         <v>4</v>
       </c>
       <c r="G44" s="0">
@@ -23897,22 +23879,22 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B45" s="0" t="s">
+      <c r="A45" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B45" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="0">
+      <c r="C45" s="41">
         <v>24280</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45" s="41">
         <v>9.33</v>
       </c>
-      <c r="F45" s="0">
+      <c r="F45" s="42">
         <v>28</v>
       </c>
       <c r="G45" s="0">
@@ -23924,22 +23906,22 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B46" s="0" t="s">
+      <c r="A46" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B46" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="0">
+      <c r="C46" s="41">
         <v>24290</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46" s="41">
         <v>1</v>
       </c>
-      <c r="F46" s="0">
+      <c r="F46" s="42">
         <v>6</v>
       </c>
       <c r="G46" s="0">
@@ -23951,22 +23933,22 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B47" s="0" t="s">
+      <c r="A47" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B47" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="0">
+      <c r="C47" s="41">
         <v>24310</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47" s="41">
         <v>4.13</v>
       </c>
-      <c r="F47" s="0">
+      <c r="F47" s="42">
         <v>2.475</v>
       </c>
       <c r="G47" s="0">
@@ -23978,22 +23960,22 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B48" s="0" t="s">
+      <c r="A48" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B48" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="0">
+      <c r="C48" s="41">
         <v>24810</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48" s="41">
         <v>1</v>
       </c>
-      <c r="F48" s="0">
+      <c r="F48" s="42">
         <v>3</v>
       </c>
       <c r="G48" s="0">
@@ -24005,22 +23987,22 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B49" s="0" t="s">
+      <c r="A49" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B49" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="0">
+      <c r="C49" s="41">
         <v>24840</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="0">
+      <c r="E49" s="41">
         <v>2</v>
       </c>
-      <c r="F49" s="0">
+      <c r="F49" s="42">
         <v>6</v>
       </c>
       <c r="G49" s="0">
@@ -24032,22 +24014,22 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B50" s="0" t="s">
+      <c r="A50" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B50" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="0">
+      <c r="C50" s="41">
         <v>24890</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50" s="41">
         <v>0.3</v>
       </c>
-      <c r="F50" s="0">
+      <c r="F50" s="42">
         <v>3</v>
       </c>
       <c r="G50" s="0">
@@ -24059,22 +24041,22 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B51" s="0" t="s">
+      <c r="A51" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B51" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="0">
+      <c r="C51" s="41">
         <v>25060</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51" s="41">
         <v>122</v>
       </c>
-      <c r="F51" s="0">
+      <c r="F51" s="42">
         <v>122</v>
       </c>
       <c r="G51" s="0">
@@ -24086,22 +24068,22 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B52" s="0" t="s">
+      <c r="A52" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B52" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="0">
+      <c r="C52" s="41">
         <v>25300</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52" s="41">
         <v>1</v>
       </c>
-      <c r="F52" s="0">
+      <c r="F52" s="42">
         <v>5</v>
       </c>
       <c r="G52" s="0">
@@ -24113,22 +24095,22 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B53" s="0" t="s">
+      <c r="A53" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B53" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C53" s="41">
         <v>25400</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53" s="41">
         <v>1</v>
       </c>
-      <c r="F53" s="0">
+      <c r="F53" s="42">
         <v>6</v>
       </c>
       <c r="G53" s="0">
@@ -24140,22 +24122,22 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B54" s="0" t="s">
+      <c r="A54" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B54" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="0">
+      <c r="C54" s="41">
         <v>26190</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54" s="41">
         <v>3</v>
       </c>
-      <c r="F54" s="0">
+      <c r="F54" s="42">
         <v>4.5</v>
       </c>
       <c r="G54" s="0">
@@ -24167,22 +24149,22 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B55" s="0" t="s">
+      <c r="A55" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B55" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55" s="41">
         <v>26210</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55" s="41">
         <v>6</v>
       </c>
-      <c r="F55" s="0">
+      <c r="F55" s="42">
         <v>15</v>
       </c>
       <c r="G55" s="0">
@@ -24194,22 +24176,22 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B56" s="0" t="s">
+      <c r="A56" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B56" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56" s="41">
         <v>26230</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56" s="41">
         <v>3</v>
       </c>
-      <c r="F56" s="0">
+      <c r="F56" s="42">
         <v>4.5</v>
       </c>
       <c r="G56" s="0">
@@ -24221,22 +24203,22 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B57" s="0" t="s">
+      <c r="A57" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B57" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57" s="41">
         <v>26260</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57" s="41">
         <v>3</v>
       </c>
-      <c r="F57" s="0">
+      <c r="F57" s="42">
         <v>9</v>
       </c>
       <c r="G57" s="0">
@@ -24248,22 +24230,22 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B58" s="0" t="s">
+      <c r="A58" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B58" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58" s="41">
         <v>26270</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58" s="41">
         <v>2</v>
       </c>
-      <c r="F58" s="0">
+      <c r="F58" s="42">
         <v>5</v>
       </c>
       <c r="G58" s="0">
@@ -24275,22 +24257,22 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B59" s="0" t="s">
+      <c r="A59" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B59" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59" s="41">
         <v>27100</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59" s="41">
         <v>5</v>
       </c>
-      <c r="F59" s="0">
+      <c r="F59" s="42">
         <v>30</v>
       </c>
       <c r="G59" s="0">
@@ -24302,22 +24284,22 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B60" s="0" t="s">
+      <c r="A60" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B60" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60" s="41">
         <v>27110</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60" s="41">
         <v>2</v>
       </c>
-      <c r="F60" s="0">
+      <c r="F60" s="42">
         <v>12</v>
       </c>
       <c r="G60" s="0">
@@ -24329,22 +24311,22 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B61" s="0" t="s">
+      <c r="A61" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B61" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61" s="41">
         <v>28730</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="E61" s="0">
+      <c r="E61" s="41">
         <v>66</v>
       </c>
-      <c r="F61" s="0">
+      <c r="F61" s="42">
         <v>66</v>
       </c>
       <c r="G61" s="0">
@@ -24356,22 +24338,22 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B62" s="0" t="s">
+      <c r="A62" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B62" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62" s="41">
         <v>28800</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62" s="41">
         <v>0.4</v>
       </c>
-      <c r="F62" s="0">
+      <c r="F62" s="42">
         <v>5</v>
       </c>
       <c r="G62" s="0">
@@ -24383,22 +24365,22 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B63" s="0" t="s">
+      <c r="A63" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B63" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63" s="41">
         <v>32500</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="0">
+      <c r="E63" s="41">
         <v>3</v>
       </c>
-      <c r="F63" s="0">
+      <c r="F63" s="42">
         <v>30</v>
       </c>
       <c r="G63" s="0">
@@ -24410,22 +24392,22 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B64" s="0" t="s">
+      <c r="A64" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B64" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64" s="41">
         <v>32550</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="E64" s="0">
+      <c r="E64" s="41">
         <v>2</v>
       </c>
-      <c r="F64" s="0">
+      <c r="F64" s="42">
         <v>10</v>
       </c>
       <c r="G64" s="0">
@@ -24437,22 +24419,22 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B65" s="0" t="s">
+      <c r="A65" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B65" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65" s="41">
         <v>32990</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65" s="41">
         <v>27</v>
       </c>
-      <c r="F65" s="0">
+      <c r="F65" s="42">
         <v>27</v>
       </c>
       <c r="G65" s="0">
@@ -24464,22 +24446,22 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B66" s="0" t="s">
+      <c r="A66" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B66" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="0">
+      <c r="C66" s="41">
         <v>33430</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="0">
+      <c r="E66" s="41">
         <v>6</v>
       </c>
-      <c r="F66" s="0">
+      <c r="F66" s="42">
         <v>90</v>
       </c>
       <c r="G66" s="0">
@@ -24491,22 +24473,22 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B67" s="0" t="s">
+      <c r="A67" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B67" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="0">
+      <c r="C67" s="41">
         <v>33450</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="0">
+      <c r="E67" s="41">
         <v>3</v>
       </c>
-      <c r="F67" s="0">
+      <c r="F67" s="42">
         <v>21</v>
       </c>
       <c r="G67" s="0">
@@ -24518,22 +24500,22 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B68" s="0" t="s">
+      <c r="A68" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B68" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="0">
+      <c r="C68" s="41">
         <v>33800</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="E68" s="0">
+      <c r="E68" s="41">
         <v>1</v>
       </c>
-      <c r="F68" s="0">
+      <c r="F68" s="42">
         <v>10</v>
       </c>
       <c r="G68" s="0">
@@ -24545,22 +24527,22 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B69" s="0" t="s">
+      <c r="A69" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B69" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="0">
+      <c r="C69" s="41">
         <v>33820</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="E69" s="0">
+      <c r="E69" s="41">
         <v>3</v>
       </c>
-      <c r="F69" s="0">
+      <c r="F69" s="42">
         <v>30</v>
       </c>
       <c r="G69" s="0">
@@ -24572,22 +24554,22 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B70" s="0" t="s">
+      <c r="A70" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B70" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="0">
+      <c r="C70" s="41">
         <v>33850</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="E70" s="0">
+      <c r="E70" s="41">
         <v>19</v>
       </c>
-      <c r="F70" s="0">
+      <c r="F70" s="42">
         <v>28.5</v>
       </c>
       <c r="G70" s="0">
@@ -24599,22 +24581,22 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B71" s="0" t="s">
+      <c r="A71" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B71" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="0">
+      <c r="C71" s="41">
         <v>35100</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E71" s="0">
+      <c r="E71" s="41">
         <v>2</v>
       </c>
-      <c r="F71" s="0">
+      <c r="F71" s="42">
         <v>20</v>
       </c>
       <c r="G71" s="0">
@@ -24626,22 +24608,22 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B72" s="0" t="s">
+      <c r="A72" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B72" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="C72" s="0">
+      <c r="C72" s="41">
         <v>44910</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="E72" s="0">
+      <c r="E72" s="41">
         <v>6</v>
       </c>
-      <c r="F72" s="0">
+      <c r="F72" s="42">
         <v>18</v>
       </c>
       <c r="G72" s="0">
@@ -24653,22 +24635,22 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B73" s="0" t="s">
+      <c r="A73" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B73" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="C73" s="0">
+      <c r="C73" s="41">
         <v>44920</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="E73" s="0">
+      <c r="E73" s="41">
         <v>7</v>
       </c>
-      <c r="F73" s="0">
+      <c r="F73" s="42">
         <v>22.4</v>
       </c>
       <c r="G73" s="0">
@@ -24680,22 +24662,22 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B74" s="0" t="s">
+      <c r="A74" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B74" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="C74" s="0">
+      <c r="C74" s="41">
         <v>44940</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="E74" s="0">
+      <c r="E74" s="41">
         <v>2</v>
       </c>
-      <c r="F74" s="0">
+      <c r="F74" s="42">
         <v>6.4</v>
       </c>
       <c r="G74" s="0">
@@ -24707,22 +24689,22 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B75" s="0" t="s">
+      <c r="A75" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B75" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="C75" s="0">
+      <c r="C75" s="41">
         <v>44980</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="E75" s="0">
+      <c r="E75" s="41">
         <v>74</v>
       </c>
-      <c r="F75" s="0">
+      <c r="F75" s="42">
         <v>74</v>
       </c>
       <c r="G75" s="0">
@@ -24734,22 +24716,22 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B76" s="0" t="s">
+      <c r="A76" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B76" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="0">
+      <c r="C76" s="41">
         <v>45010</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="E76" s="0">
+      <c r="E76" s="41">
         <v>2</v>
       </c>
-      <c r="F76" s="0">
+      <c r="F76" s="42">
         <v>4</v>
       </c>
       <c r="G76" s="0">
@@ -24761,22 +24743,22 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B77" s="0" t="s">
+      <c r="A77" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B77" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="C77" s="0">
+      <c r="C77" s="41">
         <v>45500</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="E77" s="0">
+      <c r="E77" s="41">
         <v>1</v>
       </c>
-      <c r="F77" s="0">
+      <c r="F77" s="42">
         <v>5</v>
       </c>
       <c r="G77" s="0">
@@ -24788,22 +24770,22 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B78" s="0" t="s">
+      <c r="A78" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B78" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="C78" s="0">
+      <c r="C78" s="41">
         <v>45510</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="E78" s="0">
+      <c r="E78" s="41">
         <v>4</v>
       </c>
-      <c r="F78" s="0">
+      <c r="F78" s="42">
         <v>10</v>
       </c>
       <c r="G78" s="0">
@@ -24815,22 +24797,22 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B79" s="0" t="s">
+      <c r="A79" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B79" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="0">
+      <c r="C79" s="41">
         <v>45520</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="E79" s="0">
+      <c r="E79" s="41">
         <v>10</v>
       </c>
-      <c r="F79" s="0">
+      <c r="F79" s="42">
         <v>25</v>
       </c>
       <c r="G79" s="0">
@@ -24842,22 +24824,22 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B80" s="0" t="s">
+      <c r="A80" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B80" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="C80" s="0">
+      <c r="C80" s="41">
         <v>45540</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="E80" s="0">
+      <c r="E80" s="41">
         <v>1</v>
       </c>
-      <c r="F80" s="0">
+      <c r="F80" s="42">
         <v>2.5</v>
       </c>
       <c r="G80" s="0">
@@ -24869,22 +24851,22 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B81" s="0" t="s">
+      <c r="A81" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B81" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="0">
+      <c r="C81" s="41">
         <v>45580</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="E81" s="0">
+      <c r="E81" s="41">
         <v>22</v>
       </c>
-      <c r="F81" s="0">
+      <c r="F81" s="42">
         <v>22</v>
       </c>
       <c r="G81" s="0">
@@ -24896,22 +24878,22 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B82" s="0" t="s">
+      <c r="A82" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B82" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C82" s="0">
+      <c r="C82" s="41">
         <v>45600</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="E82" s="0">
+      <c r="E82" s="41">
         <v>2</v>
       </c>
-      <c r="F82" s="0">
+      <c r="F82" s="42">
         <v>12</v>
       </c>
       <c r="G82" s="0">
@@ -24923,22 +24905,22 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B83" s="0" t="s">
+      <c r="A83" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B83" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="0">
+      <c r="C83" s="41">
         <v>45610</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="E83" s="0">
+      <c r="E83" s="41">
         <v>2</v>
       </c>
-      <c r="F83" s="0">
+      <c r="F83" s="42">
         <v>1</v>
       </c>
       <c r="G83" s="0">
@@ -24950,22 +24932,22 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B84" s="0" t="s">
+      <c r="A84" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B84" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="0">
+      <c r="C84" s="41">
         <v>45670</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="E84" s="0">
+      <c r="E84" s="41">
         <v>6</v>
       </c>
-      <c r="F84" s="0">
+      <c r="F84" s="42">
         <v>48</v>
       </c>
       <c r="G84" s="0">
@@ -24977,22 +24959,22 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B85" s="0" t="s">
+      <c r="A85" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B85" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="0">
+      <c r="C85" s="41">
         <v>63840</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="E85" s="0">
+      <c r="E85" s="41">
         <v>3</v>
       </c>
-      <c r="F85" s="0">
+      <c r="F85" s="42">
         <v>15</v>
       </c>
       <c r="G85" s="0">
@@ -25004,22 +24986,22 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B86" s="0" t="s">
+      <c r="A86" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B86" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="0">
+      <c r="C86" s="41">
         <v>65100</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="E86" s="0">
+      <c r="E86" s="41">
         <v>35</v>
       </c>
-      <c r="F86" s="0">
+      <c r="F86" s="42">
         <v>175</v>
       </c>
       <c r="G86" s="0">
@@ -25031,22 +25013,22 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B87" s="0" t="s">
+      <c r="A87" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B87" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="C87" s="0">
+      <c r="C87" s="41">
         <v>72200</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="E87" s="0">
+      <c r="E87" s="41">
         <v>48</v>
       </c>
-      <c r="F87" s="0">
+      <c r="F87" s="42">
         <v>7.2</v>
       </c>
       <c r="G87" s="0">
@@ -25058,22 +25040,22 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B88" s="0" t="s">
+      <c r="A88" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B88" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="C88" s="0">
+      <c r="C88" s="41">
         <v>73300</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="E88" s="0">
+      <c r="E88" s="41">
         <v>23</v>
       </c>
-      <c r="F88" s="0">
+      <c r="F88" s="42">
         <v>23</v>
       </c>
       <c r="G88" s="0">
@@ -25085,22 +25067,22 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B89" s="0" t="s">
+      <c r="A89" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B89" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="C89" s="0">
+      <c r="C89" s="41">
         <v>73310</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="E89" s="0">
+      <c r="E89" s="41">
         <v>1.4</v>
       </c>
-      <c r="F89" s="0">
+      <c r="F89" s="42">
         <v>1.12</v>
       </c>
       <c r="G89" s="0">
@@ -25112,22 +25094,22 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B90" s="0" t="s">
+      <c r="A90" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B90" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="C90" s="0">
+      <c r="C90" s="41">
         <v>73340</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="E90" s="0">
+      <c r="E90" s="41">
         <v>11</v>
       </c>
-      <c r="F90" s="0">
+      <c r="F90" s="42">
         <v>11</v>
       </c>
       <c r="G90" s="0">
@@ -25139,22 +25121,22 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B91" s="0" t="s">
+      <c r="A91" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B91" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="C91" s="0">
+      <c r="C91" s="41">
         <v>74410</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="E91" s="0">
+      <c r="E91" s="41">
         <v>255</v>
       </c>
-      <c r="F91" s="0">
+      <c r="F91" s="42">
         <v>51</v>
       </c>
       <c r="G91" s="0">
@@ -25166,22 +25148,22 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B92" s="0" t="s">
+      <c r="A92" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B92" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="C92" s="0">
+      <c r="C92" s="41">
         <v>74420</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="E92" s="0">
+      <c r="E92" s="41">
         <v>6</v>
       </c>
-      <c r="F92" s="0">
+      <c r="F92" s="42">
         <v>30</v>
       </c>
       <c r="G92" s="0">
@@ -25193,22 +25175,22 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B93" s="0" t="s">
+      <c r="A93" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B93" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="C93" s="0">
+      <c r="C93" s="41">
         <v>74430</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="E93" s="0">
+      <c r="E93" s="41">
         <v>3</v>
       </c>
-      <c r="F93" s="0">
+      <c r="F93" s="42">
         <v>15</v>
       </c>
       <c r="G93" s="0">
@@ -25220,22 +25202,22 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B94" s="0" t="s">
+      <c r="A94" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B94" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="C94" s="0">
+      <c r="C94" s="41">
         <v>75050</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="E94" s="0">
+      <c r="E94" s="41">
         <v>1</v>
       </c>
-      <c r="F94" s="0">
+      <c r="F94" s="42">
         <v>1.4</v>
       </c>
       <c r="G94" s="0">
@@ -25247,22 +25229,22 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B95" s="0" t="s">
+      <c r="A95" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B95" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="C95" s="0">
+      <c r="C95" s="41">
         <v>75060</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="E95" s="0">
+      <c r="E95" s="41">
         <v>1</v>
       </c>
-      <c r="F95" s="0">
+      <c r="F95" s="42">
         <v>1.4</v>
       </c>
       <c r="G95" s="0">
@@ -25274,22 +25256,22 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B96" s="0" t="s">
+      <c r="A96" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B96" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C96" s="0">
+      <c r="C96" s="41">
         <v>76800</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="E96" s="0">
+      <c r="E96" s="41">
         <v>79</v>
       </c>
-      <c r="F96" s="0">
+      <c r="F96" s="42">
         <v>7.9</v>
       </c>
       <c r="G96" s="0">
@@ -25301,22 +25283,22 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B97" s="0" t="s">
+      <c r="A97" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B97" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C97" s="0">
+      <c r="C97" s="41">
         <v>77700</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="E97" s="0">
+      <c r="E97" s="41">
         <v>1</v>
       </c>
-      <c r="F97" s="0">
+      <c r="F97" s="42">
         <v>1</v>
       </c>
       <c r="G97" s="0">
@@ -25328,22 +25310,22 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B98" s="0" t="s">
+      <c r="A98" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B98" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="C98" s="0">
+      <c r="C98" s="41">
         <v>78130</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="E98" s="0">
+      <c r="E98" s="41">
         <v>2</v>
       </c>
-      <c r="F98" s="0">
+      <c r="F98" s="42">
         <v>0.1</v>
       </c>
       <c r="G98" s="0">
@@ -25355,22 +25337,22 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B99" s="0" t="s">
+      <c r="A99" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B99" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="C99" s="0">
+      <c r="C99" s="41">
         <v>78210</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="E99" s="0">
+      <c r="E99" s="41">
         <v>1</v>
       </c>
-      <c r="F99" s="0">
+      <c r="F99" s="42">
         <v>0.01</v>
       </c>
       <c r="G99" s="0">
@@ -25382,22 +25364,22 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B100" s="0" t="s">
+      <c r="A100" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B100" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="C100" s="0">
+      <c r="C100" s="41">
         <v>79500</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="E100" s="0">
+      <c r="E100" s="41">
         <v>3</v>
       </c>
-      <c r="F100" s="0">
+      <c r="F100" s="42">
         <v>0.225</v>
       </c>
       <c r="G100" s="0">
@@ -25409,22 +25391,22 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B101" s="0" t="s">
+      <c r="A101" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B101" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="C101" s="0">
+      <c r="C101" s="41">
         <v>79530</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="E101" s="0">
+      <c r="E101" s="41">
         <v>6</v>
       </c>
-      <c r="F101" s="0">
+      <c r="F101" s="42">
         <v>0.45</v>
       </c>
       <c r="G101" s="0">
@@ -25436,22 +25418,22 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B102" s="0" t="s">
+      <c r="A102" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B102" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="C102" s="0">
+      <c r="C102" s="41">
         <v>79540</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="E102" s="0">
+      <c r="E102" s="41">
         <v>4</v>
       </c>
-      <c r="F102" s="0">
+      <c r="F102" s="42">
         <v>0.3</v>
       </c>
       <c r="G102" s="0">
@@ -25463,22 +25445,22 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B103" s="0" t="s">
+      <c r="A103" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B103" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="C103" s="0">
+      <c r="C103" s="41">
         <v>79550</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="E103" s="0">
+      <c r="E103" s="41">
         <v>4</v>
       </c>
-      <c r="F103" s="0">
+      <c r="F103" s="42">
         <v>0.3</v>
       </c>
       <c r="G103" s="0">
@@ -25490,22 +25472,22 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B104" s="0" t="s">
+      <c r="A104" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B104" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="C104" s="0">
+      <c r="C104" s="41">
         <v>79560</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="E104" s="0">
+      <c r="E104" s="41">
         <v>1</v>
       </c>
-      <c r="F104" s="0">
+      <c r="F104" s="42">
         <v>0.075</v>
       </c>
       <c r="G104" s="0">
@@ -25517,22 +25499,22 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B105" s="0" t="s">
+      <c r="A105" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B105" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="C105" s="0">
+      <c r="C105" s="41">
         <v>79570</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="E105" s="0">
+      <c r="E105" s="41">
         <v>15</v>
       </c>
-      <c r="F105" s="0">
+      <c r="F105" s="42">
         <v>1.125</v>
       </c>
       <c r="G105" s="0">
@@ -25544,22 +25526,22 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B106" s="0" t="s">
+      <c r="A106" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B106" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="C106" s="0">
+      <c r="C106" s="41">
         <v>79580</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="E106" s="0">
+      <c r="E106" s="41">
         <v>39</v>
       </c>
-      <c r="F106" s="0">
+      <c r="F106" s="42">
         <v>2.925</v>
       </c>
       <c r="G106" s="0">
@@ -25571,22 +25553,22 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B107" s="0" t="s">
+      <c r="A107" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B107" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="C107" s="0">
+      <c r="C107" s="41">
         <v>79590</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="E107" s="0">
+      <c r="E107" s="41">
         <v>12</v>
       </c>
-      <c r="F107" s="0">
+      <c r="F107" s="42">
         <v>0.9</v>
       </c>
       <c r="G107" s="0">
@@ -25598,22 +25580,22 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B108" s="0" t="s">
+      <c r="A108" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B108" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="C108" s="0">
+      <c r="C108" s="41">
         <v>79600</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="E108" s="0">
+      <c r="E108" s="41">
         <v>4</v>
       </c>
-      <c r="F108" s="0">
+      <c r="F108" s="42">
         <v>0.3</v>
       </c>
       <c r="G108" s="0">
@@ -25625,22 +25607,22 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B109" s="0" t="s">
+      <c r="A109" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B109" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="C109" s="0">
+      <c r="C109" s="41">
         <v>79630</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="E109" s="0">
+      <c r="E109" s="41">
         <v>4</v>
       </c>
-      <c r="F109" s="0">
+      <c r="F109" s="42">
         <v>0.3</v>
       </c>
       <c r="G109" s="0">
@@ -25652,22 +25634,22 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B110" s="0" t="s">
+      <c r="A110" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B110" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="C110" s="0">
+      <c r="C110" s="41">
         <v>79660</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="E110" s="0">
+      <c r="E110" s="41">
         <v>2</v>
       </c>
-      <c r="F110" s="0">
+      <c r="F110" s="42">
         <v>0.15</v>
       </c>
       <c r="G110" s="0">
@@ -25679,22 +25661,22 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B111" s="0" t="s">
+      <c r="A111" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B111" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="0">
+      <c r="C111" s="41">
         <v>79700</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="E111" s="0">
+      <c r="E111" s="41">
         <v>3</v>
       </c>
-      <c r="F111" s="0">
+      <c r="F111" s="42">
         <v>3</v>
       </c>
       <c r="G111" s="0">
@@ -25706,22 +25688,22 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B112" s="0" t="s">
+      <c r="A112" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B112" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="C112" s="0">
+      <c r="C112" s="41">
         <v>79710</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="E112" s="0">
+      <c r="E112" s="41">
         <v>1</v>
       </c>
-      <c r="F112" s="0">
+      <c r="F112" s="42">
         <v>1</v>
       </c>
       <c r="G112" s="0">
@@ -25733,22 +25715,22 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B113" s="0" t="s">
+      <c r="A113" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B113" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="C113" s="0">
+      <c r="C113" s="41">
         <v>79740</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="E113" s="0">
+      <c r="E113" s="41">
         <v>1</v>
       </c>
-      <c r="F113" s="0">
+      <c r="F113" s="42">
         <v>1</v>
       </c>
       <c r="G113" s="0">
@@ -25760,22 +25742,22 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B114" s="0" t="s">
+      <c r="A114" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B114" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="C114" s="0">
+      <c r="C114" s="41">
         <v>79750</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="E114" s="0">
+      <c r="E114" s="41">
         <v>1</v>
       </c>
-      <c r="F114" s="0">
+      <c r="F114" s="42">
         <v>1</v>
       </c>
       <c r="G114" s="0">
@@ -25787,22 +25769,22 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B115" s="0" t="s">
+      <c r="A115" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B115" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="C115" s="0">
+      <c r="C115" s="41">
         <v>79760</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="E115" s="0">
+      <c r="E115" s="41">
         <v>2</v>
       </c>
-      <c r="F115" s="0">
+      <c r="F115" s="42">
         <v>2</v>
       </c>
       <c r="G115" s="0">
@@ -25814,22 +25796,22 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B116" s="0" t="s">
+      <c r="A116" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B116" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="C116" s="0">
+      <c r="C116" s="41">
         <v>79780</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="E116" s="0">
+      <c r="E116" s="41">
         <v>2</v>
       </c>
-      <c r="F116" s="0">
+      <c r="F116" s="42">
         <v>2</v>
       </c>
       <c r="G116" s="0">
@@ -25841,22 +25823,22 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B117" s="0" t="s">
+      <c r="A117" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B117" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C117" s="0">
+      <c r="C117" s="41">
         <v>79790</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="E117" s="0">
+      <c r="E117" s="41">
         <v>2</v>
       </c>
-      <c r="F117" s="0">
+      <c r="F117" s="42">
         <v>2</v>
       </c>
       <c r="G117" s="0">
@@ -25868,22 +25850,22 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B118" s="0" t="s">
+      <c r="A118" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B118" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="C118" s="0">
+      <c r="C118" s="41">
         <v>79830</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="E118" s="0">
+      <c r="E118" s="41">
         <v>1</v>
       </c>
-      <c r="F118" s="0">
+      <c r="F118" s="42">
         <v>1</v>
       </c>
       <c r="G118" s="0">
@@ -25895,22 +25877,22 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B119" s="0" t="s">
+      <c r="A119" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B119" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="C119" s="0">
+      <c r="C119" s="41">
         <v>79860</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="E119" s="0">
+      <c r="E119" s="41">
         <v>2</v>
       </c>
-      <c r="F119" s="0">
+      <c r="F119" s="42">
         <v>2</v>
       </c>
       <c r="G119" s="0">
@@ -25922,22 +25904,22 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B120" s="0" t="s">
+      <c r="A120" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B120" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="C120" s="0">
+      <c r="C120" s="41">
         <v>102520</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="E120" s="0">
+      <c r="E120" s="41">
         <v>2</v>
       </c>
-      <c r="F120" s="0">
+      <c r="F120" s="42">
         <v>2</v>
       </c>
       <c r="G120" s="0">
@@ -25949,22 +25931,22 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B121" s="0" t="s">
+      <c r="A121" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B121" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="C121" s="0">
+      <c r="C121" s="41">
         <v>104920</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="E121" s="0">
+      <c r="E121" s="41">
         <v>1</v>
       </c>
-      <c r="F121" s="0">
+      <c r="F121" s="42">
         <v>1</v>
       </c>
       <c r="G121" s="0">
@@ -25976,22 +25958,22 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B122" s="0" t="s">
+      <c r="A122" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B122" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="C122" s="0">
+      <c r="C122" s="41">
         <v>460170</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="E122" s="0">
+      <c r="E122" s="41">
         <v>1</v>
       </c>
-      <c r="F122" s="0">
+      <c r="F122" s="42">
         <v>1</v>
       </c>
       <c r="G122" s="0">
@@ -26003,22 +25985,22 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B123" s="0" t="s">
+      <c r="A123" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B123" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="C123" s="0">
+      <c r="C123" s="41">
         <v>470070</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="E123" s="0">
+      <c r="E123" s="41">
         <v>2</v>
       </c>
-      <c r="F123" s="0">
+      <c r="F123" s="42">
         <v>6</v>
       </c>
       <c r="G123" s="0">
@@ -26030,22 +26012,22 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B124" s="0" t="s">
+      <c r="A124" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B124" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="C124" s="0">
+      <c r="C124" s="41">
         <v>471710</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="E124" s="0">
+      <c r="E124" s="41">
         <v>4</v>
       </c>
-      <c r="F124" s="0">
+      <c r="F124" s="42">
         <v>1</v>
       </c>
       <c r="G124" s="0">
@@ -26057,22 +26039,22 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B125" s="0" t="s">
+      <c r="A125" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B125" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="C125" s="0">
+      <c r="C125" s="41">
         <v>910140</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="E125" s="0">
+      <c r="E125" s="41">
         <v>2.7</v>
       </c>
-      <c r="F125" s="0">
+      <c r="F125" s="42">
         <v>27</v>
       </c>
       <c r="G125" s="0">
@@ -26084,22 +26066,22 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B126" s="0" t="s">
+      <c r="A126" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B126" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="C126" s="0">
+      <c r="C126" s="41">
         <v>910200</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="E126" s="0">
+      <c r="E126" s="41">
         <v>17</v>
       </c>
-      <c r="F126" s="0">
+      <c r="F126" s="42">
         <v>319.94</v>
       </c>
       <c r="G126" s="0">
@@ -26111,22 +26093,22 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B127" s="0" t="s">
+      <c r="A127" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B127" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C127" s="0">
+      <c r="C127" s="41">
         <v>910220</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="E127" s="0">
+      <c r="E127" s="41">
         <v>3</v>
       </c>
-      <c r="F127" s="0">
+      <c r="F127" s="42">
         <v>56.46</v>
       </c>
       <c r="G127" s="0">
@@ -26138,22 +26120,22 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B128" s="0" t="s">
+      <c r="A128" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B128" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="C128" s="0">
+      <c r="C128" s="41">
         <v>910300</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="E128" s="0">
+      <c r="E128" s="41">
         <v>15</v>
       </c>
-      <c r="F128" s="0">
+      <c r="F128" s="42">
         <v>90</v>
       </c>
       <c r="G128" s="0">
@@ -26165,22 +26147,22 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B129" s="0" t="s">
+      <c r="A129" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B129" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="C129" s="0">
+      <c r="C129" s="41">
         <v>910440</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="E129" s="0">
+      <c r="E129" s="41">
         <v>4</v>
       </c>
-      <c r="F129" s="0">
+      <c r="F129" s="42">
         <v>24</v>
       </c>
       <c r="G129" s="0">
@@ -26192,22 +26174,22 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B130" s="0" t="s">
+      <c r="A130" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B130" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="C130" s="0">
+      <c r="C130" s="41">
         <v>910530</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="E130" s="0">
+      <c r="E130" s="41">
         <v>1</v>
       </c>
-      <c r="F130" s="0">
+      <c r="F130" s="42">
         <v>4</v>
       </c>
       <c r="G130" s="0">
@@ -26219,22 +26201,22 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B131" s="0" t="s">
+      <c r="A131" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B131" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="C131" s="0">
+      <c r="C131" s="41">
         <v>910560</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="E131" s="0">
+      <c r="E131" s="41">
         <v>2</v>
       </c>
-      <c r="F131" s="0">
+      <c r="F131" s="42">
         <v>8</v>
       </c>
       <c r="G131" s="0">
@@ -26246,22 +26228,22 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B132" s="0" t="s">
+      <c r="A132" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B132" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="C132" s="0">
+      <c r="C132" s="41">
         <v>910810</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="E132" s="0">
+      <c r="E132" s="41">
         <v>12</v>
       </c>
-      <c r="F132" s="0">
+      <c r="F132" s="42">
         <v>140</v>
       </c>
       <c r="G132" s="0">
@@ -26273,22 +26255,22 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B133" s="0" t="s">
+      <c r="A133" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B133" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="C133" s="0">
+      <c r="C133" s="41">
         <v>910890</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="E133" s="0">
+      <c r="E133" s="41">
         <v>2</v>
       </c>
-      <c r="F133" s="0">
+      <c r="F133" s="42">
         <v>26</v>
       </c>
       <c r="G133" s="0">
@@ -26300,22 +26282,22 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B134" s="0" t="s">
+      <c r="A134" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B134" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="C134" s="0">
+      <c r="C134" s="41">
         <v>911250</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="E134" s="0">
+      <c r="E134" s="41">
         <v>11</v>
       </c>
-      <c r="F134" s="0">
+      <c r="F134" s="42">
         <v>121</v>
       </c>
       <c r="G134" s="0">
@@ -26327,22 +26309,22 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B135" s="0" t="s">
+      <c r="A135" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B135" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="C135" s="0">
+      <c r="C135" s="41">
         <v>920740</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D135" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="E135" s="0">
+      <c r="E135" s="41">
         <v>8</v>
       </c>
-      <c r="F135" s="0">
+      <c r="F135" s="42">
         <v>24</v>
       </c>
       <c r="G135" s="0">
@@ -26354,22 +26336,22 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B136" s="0" t="s">
+      <c r="A136" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B136" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="C136" s="0">
+      <c r="C136" s="41">
         <v>920770</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D136" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="E136" s="0">
+      <c r="E136" s="41">
         <v>16</v>
       </c>
-      <c r="F136" s="0">
+      <c r="F136" s="42">
         <v>48</v>
       </c>
       <c r="G136" s="0">
@@ -26381,22 +26363,22 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B137" s="0" t="s">
+      <c r="A137" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B137" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="C137" s="0">
+      <c r="C137" s="41">
         <v>920830</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="D137" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="E137" s="0">
+      <c r="E137" s="41">
         <v>14</v>
       </c>
-      <c r="F137" s="0">
+      <c r="F137" s="42">
         <v>84</v>
       </c>
       <c r="G137" s="0">
@@ -26408,22 +26390,22 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B138" s="0" t="s">
+      <c r="A138" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B138" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="C138" s="0">
+      <c r="C138" s="41">
         <v>920850</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D138" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="E138" s="0">
+      <c r="E138" s="41">
         <v>10</v>
       </c>
-      <c r="F138" s="0">
+      <c r="F138" s="42">
         <v>30</v>
       </c>
       <c r="G138" s="0">
@@ -26435,22 +26417,22 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B139" s="0" t="s">
+      <c r="A139" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B139" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="C139" s="0">
+      <c r="C139" s="41">
         <v>920980</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="E139" s="0">
+      <c r="E139" s="41">
         <v>4</v>
       </c>
-      <c r="F139" s="0">
+      <c r="F139" s="42">
         <v>40</v>
       </c>
       <c r="G139" s="0">
@@ -26462,22 +26444,22 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B140" s="0" t="s">
+      <c r="A140" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B140" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C140" s="0">
+      <c r="C140" s="41">
         <v>921010</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="E140" s="0">
+      <c r="E140" s="41">
         <v>4</v>
       </c>
-      <c r="F140" s="0">
+      <c r="F140" s="42">
         <v>20</v>
       </c>
       <c r="G140" s="0">
@@ -26489,22 +26471,22 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B141" s="0" t="s">
+      <c r="A141" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B141" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="C141" s="0">
+      <c r="C141" s="41">
         <v>921050</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="E141" s="0">
+      <c r="E141" s="41">
         <v>21</v>
       </c>
-      <c r="F141" s="0">
+      <c r="F141" s="42">
         <v>105</v>
       </c>
       <c r="G141" s="0">
@@ -26516,22 +26498,22 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B142" s="0" t="s">
+      <c r="A142" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B142" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="C142" s="0">
+      <c r="C142" s="41">
         <v>921060</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="E142" s="0">
+      <c r="E142" s="41">
         <v>127</v>
       </c>
-      <c r="F142" s="0">
+      <c r="F142" s="42">
         <v>635</v>
       </c>
       <c r="G142" s="0">
@@ -26543,22 +26525,22 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B143" s="0" t="s">
+      <c r="A143" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B143" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="C143" s="0">
+      <c r="C143" s="41">
         <v>921120</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="E143" s="0">
+      <c r="E143" s="41">
         <v>2</v>
       </c>
-      <c r="F143" s="0">
+      <c r="F143" s="42">
         <v>9.6</v>
       </c>
       <c r="G143" s="0">
@@ -26570,22 +26552,22 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B144" s="0" t="s">
+      <c r="A144" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B144" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="C144" s="0">
+      <c r="C144" s="41">
         <v>921190</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="E144" s="0">
+      <c r="E144" s="41">
         <v>18</v>
       </c>
-      <c r="F144" s="0">
+      <c r="F144" s="42">
         <v>86</v>
       </c>
       <c r="G144" s="0">
@@ -26597,22 +26579,22 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B145" s="0" t="s">
+      <c r="A145" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B145" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="C145" s="0">
+      <c r="C145" s="41">
         <v>921500</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="D145" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="E145" s="0">
+      <c r="E145" s="41">
         <v>6</v>
       </c>
-      <c r="F145" s="0">
+      <c r="F145" s="42">
         <v>30</v>
       </c>
       <c r="G145" s="0">
@@ -26624,22 +26606,22 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B146" s="0" t="s">
+      <c r="A146" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B146" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="C146" s="0">
+      <c r="C146" s="41">
         <v>921570</v>
       </c>
-      <c r="D146" s="0" t="s">
+      <c r="D146" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="E146" s="0">
+      <c r="E146" s="41">
         <v>15</v>
       </c>
-      <c r="F146" s="0">
+      <c r="F146" s="42">
         <v>45</v>
       </c>
       <c r="G146" s="0">
@@ -26651,22 +26633,22 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B147" s="0" t="s">
+      <c r="A147" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B147" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="C147" s="0">
+      <c r="C147" s="41">
         <v>921600</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="D147" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="E147" s="0">
+      <c r="E147" s="41">
         <v>6</v>
       </c>
-      <c r="F147" s="0">
+      <c r="F147" s="42">
         <v>24</v>
       </c>
       <c r="G147" s="0">
@@ -26678,22 +26660,22 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B148" s="0" t="s">
+      <c r="A148" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B148" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="C148" s="0">
+      <c r="C148" s="41">
         <v>921700</v>
       </c>
-      <c r="D148" s="0" t="s">
+      <c r="D148" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="E148" s="0">
+      <c r="E148" s="41">
         <v>62</v>
       </c>
-      <c r="F148" s="0">
+      <c r="F148" s="42">
         <v>585</v>
       </c>
       <c r="G148" s="0">
@@ -26705,22 +26687,22 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B149" s="0" t="s">
+      <c r="A149" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B149" s="42" t="s">
         <v>302</v>
       </c>
-      <c r="C149" s="0">
+      <c r="C149" s="41">
         <v>921910</v>
       </c>
-      <c r="D149" s="0" t="s">
+      <c r="D149" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="E149" s="0">
+      <c r="E149" s="41">
         <v>15</v>
       </c>
-      <c r="F149" s="0">
+      <c r="F149" s="42">
         <v>66</v>
       </c>
       <c r="G149" s="0">
@@ -26732,22 +26714,22 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B150" s="0" t="s">
+      <c r="A150" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B150" s="42" t="s">
         <v>304</v>
       </c>
-      <c r="C150" s="0">
+      <c r="C150" s="41">
         <v>921930</v>
       </c>
-      <c r="D150" s="0" t="s">
+      <c r="D150" s="42" t="s">
         <v>305</v>
       </c>
-      <c r="E150" s="0">
+      <c r="E150" s="41">
         <v>8</v>
       </c>
-      <c r="F150" s="0">
+      <c r="F150" s="42">
         <v>80</v>
       </c>
       <c r="G150" s="0">
@@ -26759,22 +26741,22 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B151" s="0" t="s">
+      <c r="A151" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B151" s="42" t="s">
         <v>306</v>
       </c>
-      <c r="C151" s="0">
+      <c r="C151" s="41">
         <v>922020</v>
       </c>
-      <c r="D151" s="0" t="s">
+      <c r="D151" s="42" t="s">
         <v>307</v>
       </c>
-      <c r="E151" s="0">
+      <c r="E151" s="41">
         <v>75</v>
       </c>
-      <c r="F151" s="0">
+      <c r="F151" s="42">
         <v>375</v>
       </c>
       <c r="G151" s="0">
@@ -26786,22 +26768,22 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B152" s="0" t="s">
+      <c r="A152" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B152" s="42" t="s">
         <v>308</v>
       </c>
-      <c r="C152" s="0">
+      <c r="C152" s="41">
         <v>922050</v>
       </c>
-      <c r="D152" s="0" t="s">
+      <c r="D152" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="E152" s="0">
+      <c r="E152" s="41">
         <v>9</v>
       </c>
-      <c r="F152" s="0">
+      <c r="F152" s="42">
         <v>102</v>
       </c>
       <c r="G152" s="0">
@@ -26813,22 +26795,22 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B153" s="0" t="s">
+      <c r="A153" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B153" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="C153" s="0">
+      <c r="C153" s="41">
         <v>922800</v>
       </c>
-      <c r="D153" s="0" t="s">
+      <c r="D153" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="E153" s="0">
+      <c r="E153" s="41">
         <v>1</v>
       </c>
-      <c r="F153" s="0">
+      <c r="F153" s="42">
         <v>10</v>
       </c>
       <c r="G153" s="0">
@@ -26840,22 +26822,22 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B154" s="0" t="s">
+      <c r="A154" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B154" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="C154" s="0">
+      <c r="C154" s="41">
         <v>924210</v>
       </c>
-      <c r="D154" s="0" t="s">
+      <c r="D154" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="E154" s="0">
+      <c r="E154" s="41">
         <v>84</v>
       </c>
-      <c r="F154" s="0">
+      <c r="F154" s="42">
         <v>420</v>
       </c>
       <c r="G154" s="0">
@@ -26867,22 +26849,22 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B155" s="0" t="s">
+      <c r="A155" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B155" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="C155" s="0">
+      <c r="C155" s="41">
         <v>924230</v>
       </c>
-      <c r="D155" s="0" t="s">
+      <c r="D155" s="42" t="s">
         <v>315</v>
       </c>
-      <c r="E155" s="0">
+      <c r="E155" s="41">
         <v>22</v>
       </c>
-      <c r="F155" s="0">
+      <c r="F155" s="42">
         <v>110</v>
       </c>
       <c r="G155" s="0">
@@ -26894,22 +26876,22 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B156" s="0" t="s">
+      <c r="A156" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B156" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="C156" s="0">
+      <c r="C156" s="41">
         <v>924280</v>
       </c>
-      <c r="D156" s="0" t="s">
+      <c r="D156" s="42" t="s">
         <v>317</v>
       </c>
-      <c r="E156" s="0">
+      <c r="E156" s="41">
         <v>2</v>
       </c>
-      <c r="F156" s="0">
+      <c r="F156" s="42">
         <v>2</v>
       </c>
       <c r="G156" s="0">
@@ -26921,22 +26903,22 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B157" s="0" t="s">
+      <c r="A157" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B157" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="C157" s="0">
+      <c r="C157" s="41">
         <v>925060</v>
       </c>
-      <c r="D157" s="0" t="s">
+      <c r="D157" s="42" t="s">
         <v>319</v>
       </c>
-      <c r="E157" s="0">
+      <c r="E157" s="41">
         <v>18</v>
       </c>
-      <c r="F157" s="0">
+      <c r="F157" s="42">
         <v>18</v>
       </c>
       <c r="G157" s="0">
@@ -26948,22 +26930,22 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B158" s="0" t="s">
+      <c r="A158" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B158" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="C158" s="0">
+      <c r="C158" s="41">
         <v>925410</v>
       </c>
-      <c r="D158" s="0" t="s">
+      <c r="D158" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="E158" s="0">
+      <c r="E158" s="41">
         <v>4</v>
       </c>
-      <c r="F158" s="0">
+      <c r="F158" s="42">
         <v>20</v>
       </c>
       <c r="G158" s="0">
@@ -26975,22 +26957,22 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B159" s="0" t="s">
+      <c r="A159" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B159" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="C159" s="0">
+      <c r="C159" s="41">
         <v>926210</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="D159" s="42" t="s">
         <v>323</v>
       </c>
-      <c r="E159" s="0">
+      <c r="E159" s="41">
         <v>112</v>
       </c>
-      <c r="F159" s="0">
+      <c r="F159" s="42">
         <v>280</v>
       </c>
       <c r="G159" s="0">
@@ -27002,22 +26984,22 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B160" s="0" t="s">
+      <c r="A160" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B160" s="42" t="s">
         <v>324</v>
       </c>
-      <c r="C160" s="0">
+      <c r="C160" s="41">
         <v>926270</v>
       </c>
-      <c r="D160" s="0" t="s">
+      <c r="D160" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="E160" s="0">
+      <c r="E160" s="41">
         <v>16</v>
       </c>
-      <c r="F160" s="0">
+      <c r="F160" s="42">
         <v>40</v>
       </c>
       <c r="G160" s="0">
@@ -27029,22 +27011,22 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B161" s="0" t="s">
+      <c r="A161" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B161" s="42" t="s">
         <v>326</v>
       </c>
-      <c r="C161" s="0">
+      <c r="C161" s="41">
         <v>926600</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D161" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="E161" s="0">
+      <c r="E161" s="41">
         <v>75</v>
       </c>
-      <c r="F161" s="0">
+      <c r="F161" s="42">
         <v>330</v>
       </c>
       <c r="G161" s="0">
@@ -27056,22 +27038,22 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B162" s="0" t="s">
+      <c r="A162" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B162" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="C162" s="0">
+      <c r="C162" s="41">
         <v>927100</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="D162" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="E162" s="0">
+      <c r="E162" s="41">
         <v>64</v>
       </c>
-      <c r="F162" s="0">
+      <c r="F162" s="42">
         <v>516.5</v>
       </c>
       <c r="G162" s="0">
@@ -27083,22 +27065,22 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B163" s="0" t="s">
+      <c r="A163" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B163" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="C163" s="0">
+      <c r="C163" s="41">
         <v>927110</v>
       </c>
-      <c r="D163" s="0" t="s">
+      <c r="D163" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="E163" s="0">
+      <c r="E163" s="41">
         <v>12</v>
       </c>
-      <c r="F163" s="0">
+      <c r="F163" s="42">
         <v>101.5</v>
       </c>
       <c r="G163" s="0">
@@ -27110,22 +27092,22 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B164" s="0" t="s">
+      <c r="A164" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B164" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="C164" s="0">
+      <c r="C164" s="41">
         <v>928800</v>
       </c>
-      <c r="D164" s="0" t="s">
+      <c r="D164" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="E164" s="0">
+      <c r="E164" s="41">
         <v>0.08</v>
       </c>
-      <c r="F164" s="0">
+      <c r="F164" s="42">
         <v>1</v>
       </c>
       <c r="G164" s="0">
@@ -27137,22 +27119,22 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B165" s="0" t="s">
+      <c r="A165" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B165" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="C165" s="0">
+      <c r="C165" s="41">
         <v>929300</v>
       </c>
-      <c r="D165" s="0" t="s">
+      <c r="D165" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="E165" s="0">
+      <c r="E165" s="41">
         <v>16</v>
       </c>
-      <c r="F165" s="0">
+      <c r="F165" s="42">
         <v>160</v>
       </c>
       <c r="G165" s="0">
@@ -27164,22 +27146,22 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B166" s="0" t="s">
+      <c r="A166" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B166" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="C166" s="0">
+      <c r="C166" s="41">
         <v>932500</v>
       </c>
-      <c r="D166" s="0" t="s">
+      <c r="D166" s="42" t="s">
         <v>337</v>
       </c>
-      <c r="E166" s="0">
+      <c r="E166" s="41">
         <v>105</v>
       </c>
-      <c r="F166" s="0">
+      <c r="F166" s="42">
         <v>1050</v>
       </c>
       <c r="G166" s="0">
@@ -27191,22 +27173,22 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B167" s="0" t="s">
+      <c r="A167" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B167" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="C167" s="0">
+      <c r="C167" s="41">
         <v>932560</v>
       </c>
-      <c r="D167" s="0" t="s">
+      <c r="D167" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="E167" s="0">
+      <c r="E167" s="41">
         <v>34</v>
       </c>
-      <c r="F167" s="0">
+      <c r="F167" s="42">
         <v>340</v>
       </c>
       <c r="G167" s="0">
@@ -27218,22 +27200,22 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B168" s="0" t="s">
+      <c r="A168" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B168" s="42" t="s">
         <v>340</v>
       </c>
-      <c r="C168" s="0">
+      <c r="C168" s="41">
         <v>933430</v>
       </c>
-      <c r="D168" s="0" t="s">
+      <c r="D168" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="E168" s="0">
+      <c r="E168" s="41">
         <v>106</v>
       </c>
-      <c r="F168" s="0">
+      <c r="F168" s="42">
         <v>530</v>
       </c>
       <c r="G168" s="0">
@@ -27245,22 +27227,22 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B169" s="0" t="s">
+      <c r="A169" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B169" s="42" t="s">
         <v>342</v>
       </c>
-      <c r="C169" s="0">
+      <c r="C169" s="41">
         <v>933450</v>
       </c>
-      <c r="D169" s="0" t="s">
+      <c r="D169" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="E169" s="0">
+      <c r="E169" s="41">
         <v>216</v>
       </c>
-      <c r="F169" s="0">
+      <c r="F169" s="42">
         <v>1080</v>
       </c>
       <c r="G169" s="0">
@@ -27272,22 +27254,22 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B170" s="0" t="s">
+      <c r="A170" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B170" s="42" t="s">
         <v>344</v>
       </c>
-      <c r="C170" s="0">
+      <c r="C170" s="41">
         <v>933550</v>
       </c>
-      <c r="D170" s="0" t="s">
+      <c r="D170" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="E170" s="0">
+      <c r="E170" s="41">
         <v>32</v>
       </c>
-      <c r="F170" s="0">
+      <c r="F170" s="42">
         <v>160</v>
       </c>
       <c r="G170" s="0">
@@ -27299,22 +27281,22 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B171" s="0" t="s">
+      <c r="A171" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B171" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="C171" s="0">
+      <c r="C171" s="41">
         <v>933560</v>
       </c>
-      <c r="D171" s="0" t="s">
+      <c r="D171" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="E171" s="0">
+      <c r="E171" s="41">
         <v>12</v>
       </c>
-      <c r="F171" s="0">
+      <c r="F171" s="42">
         <v>60</v>
       </c>
       <c r="G171" s="0">
@@ -27326,22 +27308,22 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B172" s="0" t="s">
+      <c r="A172" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B172" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="C172" s="0">
+      <c r="C172" s="41">
         <v>933800</v>
       </c>
-      <c r="D172" s="0" t="s">
+      <c r="D172" s="42" t="s">
         <v>349</v>
       </c>
-      <c r="E172" s="0">
+      <c r="E172" s="41">
         <v>1</v>
       </c>
-      <c r="F172" s="0">
+      <c r="F172" s="42">
         <v>10</v>
       </c>
       <c r="G172" s="0">
@@ -27353,22 +27335,22 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B173" s="0" t="s">
+      <c r="A173" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B173" s="42" t="s">
         <v>350</v>
       </c>
-      <c r="C173" s="0">
+      <c r="C173" s="41">
         <v>935100</v>
       </c>
-      <c r="D173" s="0" t="s">
+      <c r="D173" s="42" t="s">
         <v>351</v>
       </c>
-      <c r="E173" s="0">
+      <c r="E173" s="41">
         <v>7</v>
       </c>
-      <c r="F173" s="0">
+      <c r="F173" s="42">
         <v>70</v>
       </c>
       <c r="G173" s="0">
@@ -27380,22 +27362,22 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B174" s="0" t="s">
+      <c r="A174" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B174" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="C174" s="0">
+      <c r="C174" s="41">
         <v>944910</v>
       </c>
-      <c r="D174" s="0" t="s">
+      <c r="D174" s="42" t="s">
         <v>353</v>
       </c>
-      <c r="E174" s="0">
+      <c r="E174" s="41">
         <v>2</v>
       </c>
-      <c r="F174" s="0">
+      <c r="F174" s="42">
         <v>6</v>
       </c>
       <c r="G174" s="0">
@@ -27407,22 +27389,22 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B175" s="0" t="s">
+      <c r="A175" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B175" s="42" t="s">
         <v>354</v>
       </c>
-      <c r="C175" s="0">
+      <c r="C175" s="41">
         <v>944920</v>
       </c>
-      <c r="D175" s="0" t="s">
+      <c r="D175" s="42" t="s">
         <v>355</v>
       </c>
-      <c r="E175" s="0">
+      <c r="E175" s="41">
         <v>5</v>
       </c>
-      <c r="F175" s="0">
+      <c r="F175" s="42">
         <v>14.9</v>
       </c>
       <c r="G175" s="0">
@@ -27434,22 +27416,22 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B176" s="0" t="s">
+      <c r="A176" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B176" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="C176" s="0">
+      <c r="C176" s="41">
         <v>944930</v>
       </c>
-      <c r="D176" s="0" t="s">
+      <c r="D176" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="E176" s="0">
+      <c r="E176" s="41">
         <v>2</v>
       </c>
-      <c r="F176" s="0">
+      <c r="F176" s="42">
         <v>4.1</v>
       </c>
       <c r="G176" s="0">
@@ -27461,22 +27443,22 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B177" s="0" t="s">
+      <c r="A177" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B177" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="C177" s="0">
+      <c r="C177" s="41">
         <v>944980</v>
       </c>
-      <c r="D177" s="0" t="s">
+      <c r="D177" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="E177" s="0">
+      <c r="E177" s="41">
         <v>14</v>
       </c>
-      <c r="F177" s="0">
+      <c r="F177" s="42">
         <v>14</v>
       </c>
       <c r="G177" s="0">
@@ -27488,22 +27470,22 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B178" s="0" t="s">
+      <c r="A178" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B178" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C178" s="0">
+      <c r="C178" s="41">
         <v>945050</v>
       </c>
-      <c r="D178" s="0" t="s">
+      <c r="D178" s="42" t="s">
         <v>361</v>
       </c>
-      <c r="E178" s="0">
+      <c r="E178" s="41">
         <v>1</v>
       </c>
-      <c r="F178" s="0">
+      <c r="F178" s="42">
         <v>1</v>
       </c>
       <c r="G178" s="0">
@@ -27515,22 +27497,22 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B179" s="0" t="s">
+      <c r="A179" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B179" s="42" t="s">
         <v>362</v>
       </c>
-      <c r="C179" s="0">
+      <c r="C179" s="41">
         <v>945500</v>
       </c>
-      <c r="D179" s="0" t="s">
+      <c r="D179" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="E179" s="0">
+      <c r="E179" s="41">
         <v>20</v>
       </c>
-      <c r="F179" s="0">
+      <c r="F179" s="42">
         <v>87.7</v>
       </c>
       <c r="G179" s="0">
@@ -27542,22 +27524,22 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B180" s="0" t="s">
+      <c r="A180" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B180" s="42" t="s">
         <v>364</v>
       </c>
-      <c r="C180" s="0">
+      <c r="C180" s="41">
         <v>945670</v>
       </c>
-      <c r="D180" s="0" t="s">
+      <c r="D180" s="42" t="s">
         <v>365</v>
       </c>
-      <c r="E180" s="0">
+      <c r="E180" s="41">
         <v>2</v>
       </c>
-      <c r="F180" s="0">
+      <c r="F180" s="42">
         <v>10</v>
       </c>
       <c r="G180" s="0">
@@ -27569,22 +27551,22 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B181" s="0" t="s">
+      <c r="A181" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B181" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="C181" s="0">
+      <c r="C181" s="41">
         <v>972200</v>
       </c>
-      <c r="D181" s="0" t="s">
+      <c r="D181" s="42" t="s">
         <v>367</v>
       </c>
-      <c r="E181" s="0">
+      <c r="E181" s="41">
         <v>7</v>
       </c>
-      <c r="F181" s="0">
+      <c r="F181" s="42">
         <v>0.7</v>
       </c>
       <c r="G181" s="0">
@@ -27596,22 +27578,22 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B182" s="0" t="s">
+      <c r="A182" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B182" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="C182" s="0">
+      <c r="C182" s="41">
         <v>974420</v>
       </c>
-      <c r="D182" s="0" t="s">
+      <c r="D182" s="42" t="s">
         <v>369</v>
       </c>
-      <c r="E182" s="0">
+      <c r="E182" s="41">
         <v>1</v>
       </c>
-      <c r="F182" s="0">
+      <c r="F182" s="42">
         <v>1</v>
       </c>
       <c r="G182" s="0">
@@ -27623,22 +27605,22 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B183" s="0" t="s">
+      <c r="A183" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B183" s="42" t="s">
         <v>370</v>
       </c>
-      <c r="C183" s="0">
+      <c r="C183" s="41">
         <v>974430</v>
       </c>
-      <c r="D183" s="0" t="s">
+      <c r="D183" s="42" t="s">
         <v>371</v>
       </c>
-      <c r="E183" s="0">
+      <c r="E183" s="41">
         <v>2</v>
       </c>
-      <c r="F183" s="0">
+      <c r="F183" s="42">
         <v>2</v>
       </c>
       <c r="G183" s="0">
@@ -27650,22 +27632,22 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B184" s="0" t="s">
+      <c r="A184" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B184" s="42" t="s">
         <v>372</v>
       </c>
-      <c r="C184" s="0">
+      <c r="C184" s="41">
         <v>976800</v>
       </c>
-      <c r="D184" s="0" t="s">
+      <c r="D184" s="42" t="s">
         <v>373</v>
       </c>
-      <c r="E184" s="0">
+      <c r="E184" s="41">
         <v>8</v>
       </c>
-      <c r="F184" s="0">
+      <c r="F184" s="42">
         <v>6.4</v>
       </c>
       <c r="G184" s="0">
@@ -27677,22 +27659,22 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B185" s="0" t="s">
+      <c r="A185" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B185" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="C185" s="0">
+      <c r="C185" s="41">
         <v>977500</v>
       </c>
-      <c r="D185" s="0" t="s">
+      <c r="D185" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="E185" s="0">
+      <c r="E185" s="41">
         <v>6</v>
       </c>
-      <c r="F185" s="0">
+      <c r="F185" s="42">
         <v>6</v>
       </c>
       <c r="G185" s="0">
@@ -27704,22 +27686,22 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B186" s="0" t="s">
+      <c r="A186" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B186" s="42" t="s">
         <v>376</v>
       </c>
-      <c r="C186" s="0">
+      <c r="C186" s="41">
         <v>977510</v>
       </c>
-      <c r="D186" s="0" t="s">
+      <c r="D186" s="42" t="s">
         <v>377</v>
       </c>
-      <c r="E186" s="0">
+      <c r="E186" s="41">
         <v>6</v>
       </c>
-      <c r="F186" s="0">
+      <c r="F186" s="42">
         <v>2.4</v>
       </c>
       <c r="G186" s="0">
@@ -27731,22 +27713,22 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B187" s="0" t="s">
+      <c r="A187" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B187" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="C187" s="0">
+      <c r="C187" s="41">
         <v>977550</v>
       </c>
-      <c r="D187" s="0" t="s">
+      <c r="D187" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="E187" s="0">
+      <c r="E187" s="41">
         <v>4</v>
       </c>
-      <c r="F187" s="0">
+      <c r="F187" s="42">
         <v>1.6</v>
       </c>
       <c r="G187" s="0">
@@ -27758,22 +27740,22 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B188" s="0" t="s">
+      <c r="A188" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B188" s="42" t="s">
         <v>380</v>
       </c>
-      <c r="C188" s="0">
+      <c r="C188" s="41">
         <v>977700</v>
       </c>
-      <c r="D188" s="0" t="s">
+      <c r="D188" s="42" t="s">
         <v>381</v>
       </c>
-      <c r="E188" s="0">
+      <c r="E188" s="41">
         <v>3</v>
       </c>
-      <c r="F188" s="0">
+      <c r="F188" s="42">
         <v>3</v>
       </c>
       <c r="G188" s="0">
@@ -27785,22 +27767,22 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B189" s="0" t="s">
+      <c r="A189" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B189" s="42" t="s">
         <v>382</v>
       </c>
-      <c r="C189" s="0">
+      <c r="C189" s="41">
         <v>979610</v>
       </c>
-      <c r="D189" s="0" t="s">
+      <c r="D189" s="42" t="s">
         <v>383</v>
       </c>
-      <c r="E189" s="0">
+      <c r="E189" s="41">
         <v>8</v>
       </c>
-      <c r="F189" s="0">
+      <c r="F189" s="42">
         <v>0.4</v>
       </c>
       <c r="G189" s="0">
@@ -27812,22 +27794,22 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B190" s="0" t="s">
+      <c r="A190" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B190" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="C190" s="0">
+      <c r="C190" s="41">
         <v>979700</v>
       </c>
-      <c r="D190" s="0" t="s">
+      <c r="D190" s="42" t="s">
         <v>385</v>
       </c>
-      <c r="E190" s="0">
+      <c r="E190" s="41">
         <v>13</v>
       </c>
-      <c r="F190" s="0">
+      <c r="F190" s="42">
         <v>13</v>
       </c>
       <c r="G190" s="0">
@@ -27839,22 +27821,22 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B191" s="0" t="s">
+      <c r="A191" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B191" s="42" t="s">
         <v>386</v>
       </c>
-      <c r="C191" s="0">
+      <c r="C191" s="41">
         <v>979750</v>
       </c>
-      <c r="D191" s="0" t="s">
+      <c r="D191" s="42" t="s">
         <v>387</v>
       </c>
-      <c r="E191" s="0">
+      <c r="E191" s="41">
         <v>1</v>
       </c>
-      <c r="F191" s="0">
+      <c r="F191" s="42">
         <v>1</v>
       </c>
       <c r="G191" s="0">
@@ -27866,22 +27848,22 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="0">
-        <v>1421</v>
-      </c>
-      <c r="B192" s="0" t="s">
+      <c r="A192" s="41">
+        <v>1421</v>
+      </c>
+      <c r="B192" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="C192" s="0">
+      <c r="C192" s="41">
         <v>9996520</v>
       </c>
-      <c r="D192" s="0" t="s">
+      <c r="D192" s="42" t="s">
         <v>389</v>
       </c>
-      <c r="E192" s="0">
+      <c r="E192" s="41">
         <v>2</v>
       </c>
-      <c r="F192" s="0">
+      <c r="F192" s="42">
         <v>0</v>
       </c>
       <c r="G192" s="0">

--- a/out/AC/AC 1421.xlsx
+++ b/out/AC/AC 1421.xlsx
@@ -13496,7 +13496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5BB244-5C38-4C40-A77F-2E18E036528D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A04B2F4-12E6-4377-89E9-7DE71E88FAE0}">
   <dimension ref="A1:I1179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
@@ -23723,7 +23723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6B8222-2D33-4660-A383-837807324B47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DED8F2-161C-43AB-AAFD-0EB998256D12}">
   <dimension ref="A1:H1179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
@@ -39449,7 +39449,7 @@
 </worksheet>
 </file>
 
-<file path=EPPlusLicense.txt>This workbook was created with the EPPlus library, licensed to Nikolaj R Christensen under the Polyform Noncommercial license, see https://polyformproject.org/licenses/noncommercial/1.0.0
-For more information about EPPlus, see https://epplussoftware.com/
+<file path=EPPlusLicense.txt>This workbook was created with the EPPlus library, licensed to Nikolaj R Christensen under the Polyform Noncommercial license, see https://polyformproject.org/licenses/noncommercial/1.0.0
+For more information about EPPlus, see https://epplussoftware.com/
 
 </file>